--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-898982.8052568457</v>
+        <v>-901531.4624428655</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>129.6194020613843</v>
       </c>
       <c r="G2" t="n">
-        <v>33.7829804385791</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>36.69369469525566</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487889</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.8240272782426</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>242.5041180628504</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>15.4148322062577</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>37.34603395015473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.00612878790278</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>341.098450742317</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>95.88858710941923</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>124.4197966289234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>29.67382008037407</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>14.53306611597012</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892471</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552831</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.4328067935282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756259</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7891334611249</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>94.8018463974133</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543531</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>233.1177194680685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>176.1811323375797</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053466</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.4429877184274</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>214.0647808588589</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869775</v>
+        <v>164.2607468869782</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036681</v>
+        <v>151.6755878036687</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232526</v>
+        <v>133.0442397232532</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516094</v>
+        <v>118.6723819134297</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279715</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>58.71675624633348</v>
+        <v>149.9529049973097</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512641</v>
+        <v>124.7234795512647</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.80401341516255</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066848</v>
+        <v>165.4550527066855</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323285</v>
+        <v>201.8342170323291</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942844</v>
+        <v>270.6132410942851</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288682</v>
+        <v>236.5664100288689</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416312</v>
+        <v>270.9517650416319</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940774</v>
+        <v>210.138422094078</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.013420057135</v>
+        <v>203.0134200571357</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652682</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.638712032429</v>
+        <v>2065.11022283525</v>
       </c>
       <c r="C2" t="n">
-        <v>1255.676195092017</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D2" t="n">
-        <v>897.4104964852665</v>
+        <v>1337.882007288088</v>
       </c>
       <c r="E2" t="n">
-        <v>511.6222438870223</v>
+        <v>952.093754689844</v>
       </c>
       <c r="F2" t="n">
-        <v>100.6363390974147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883005</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539434</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.24380226932</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008241</v>
+        <v>2841.849394875184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032429</v>
+        <v>2451.710062899372</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7936412903414</v>
+        <v>945.3964936596651</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7936412903415</v>
+        <v>776.4603107317582</v>
       </c>
       <c r="D4" t="n">
-        <v>249.7936412903415</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>249.7936412903415</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>249.7936412903416</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791188</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621287</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621287</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641112</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.4421061205811</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
         <v>779.1681669784198</v>
@@ -4559,58 +4559,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557433</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4644,13 +4644,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
         <v>675.2351809199101</v>
@@ -4711,28 +4711,28 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.017310961457</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X7" t="n">
-        <v>896.0277600634403</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2351809199101</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.5934525793617</v>
+        <v>747.4506112757448</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>578.5144283478379</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>428.3977889355021</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>428.3977889355021</v>
       </c>
       <c r="F10" t="n">
         <v>331.5406302391191</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.5934525793617</v>
+        <v>929.0990761059845</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,28 +5057,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3275.130390493378</v>
+        <v>961.4446166151477</v>
       </c>
       <c r="C13" t="n">
-        <v>3106.194207565472</v>
+        <v>792.5084336872409</v>
       </c>
       <c r="D13" t="n">
-        <v>2956.077568153136</v>
+        <v>642.3917942749051</v>
       </c>
       <c r="E13" t="n">
-        <v>2808.164474570743</v>
+        <v>494.478700692512</v>
       </c>
       <c r="F13" t="n">
-        <v>2661.274527072832</v>
+        <v>347.5887531946016</v>
       </c>
       <c r="G13" t="n">
-        <v>2494.078427787712</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>2352.36659662991</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>4221.33114932884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>3932.255922673035</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>3677.571434467148</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>3677.571434467148</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>3677.571434467148</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="Y13" t="n">
-        <v>3456.778855323618</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713837</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.9786782557277</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536384</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038371</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797772</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625426</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311992</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614389</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835329</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711972</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1198.228921741679</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.228921741679</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6242,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2269.002343845331</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.400878868272</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868272</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662385</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958737</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679668</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>483.876005055631</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>483.876005055631</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>336.9860575577207</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261134</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>830.0516200218092</v>
+        <v>778.7344347539579</v>
       </c>
       <c r="C34" t="n">
-        <v>676.8439555736596</v>
+        <v>625.5267703058078</v>
       </c>
       <c r="D34" t="n">
-        <v>542.4558346410812</v>
+        <v>491.1386493732286</v>
       </c>
       <c r="E34" t="n">
-        <v>410.2712595384454</v>
+        <v>371.2675565313805</v>
       </c>
       <c r="F34" t="n">
-        <v>279.1098305202923</v>
+        <v>371.2675565313805</v>
       </c>
       <c r="G34" t="n">
-        <v>219.7999757260164</v>
+        <v>219.7999757260171</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403058</v>
+        <v>189.4682024403053</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278546</v>
+        <v>466.5729859278534</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658048</v>
+        <v>872.3871010658031</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.81232475885</v>
+        <v>1309.812324758847</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380868</v>
+        <v>1742.637717380865</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051864</v>
+        <v>2127.582519051859</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587433</v>
+        <v>2435.673495587428</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276342</v>
+        <v>2570.287251276337</v>
       </c>
       <c r="R34" t="n">
-        <v>2570.287251276342</v>
+        <v>2518.970066008495</v>
       </c>
       <c r="S34" t="n">
-        <v>2403.160935411004</v>
+        <v>2351.843750143157</v>
       </c>
       <c r="T34" t="n">
-        <v>2199.287988913702</v>
+        <v>2147.970803645854</v>
       </c>
       <c r="U34" t="n">
-        <v>1925.941280737657</v>
+        <v>1874.624095469809</v>
       </c>
       <c r="V34" t="n">
-        <v>1686.985311011528</v>
+        <v>1635.668125743679</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.296659454325</v>
+        <v>1361.979474186475</v>
       </c>
       <c r="X34" t="n">
-        <v>1201.035627036064</v>
+        <v>1149.718441768214</v>
       </c>
       <c r="Y34" t="n">
-        <v>995.9715663722916</v>
+        <v>944.654381104441</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438403</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,10 +7135,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311324</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7625,16 +7625,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-7.280171930366088e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>277.2566436803272</v>
       </c>
       <c r="G2" t="n">
-        <v>377.1387452148743</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.187761788176</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>129.3321135637726</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>190.7078566989491</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>135.8503182118948</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>66.73277020259543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.5054897610409</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.15184655856662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516623</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32.9205219279122</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.44497470121453</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.9259388694749486</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.5956654067397</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>53.40527886852255</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.84515366406491</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.08115057384144</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>72.11969353038521</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12.19034743818036</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.8498147279721</v>
       </c>
       <c r="G34" t="n">
-        <v>91.23614875097559</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360577</v>
+        <v>65.69460302360642</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516193</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.004263632321431e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1216491.62312736</v>
+        <v>1216491.623127359</v>
       </c>
     </row>
     <row r="13">
@@ -26317,13 +26317,13 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26332,25 +26332,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
+        <v>221965.3149147517</v>
+      </c>
+      <c r="J2" t="n">
         <v>221965.3149147518</v>
       </c>
-      <c r="J2" t="n">
-        <v>221965.3149147516</v>
-      </c>
       <c r="K2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624257</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.486712678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26366,16 +26366,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.755561243044213e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596781</v>
+        <v>12456.98663596729</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317575</v>
+        <v>92025.75929317632</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13430.06689216532</v>
+        <v>13430.06689216534</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184279</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="L4" t="n">
-        <v>18730.51986650605</v>
+        <v>18730.51986650583</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="O4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="P4" t="n">
         <v>21597.66737493621</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>102431.5878357811</v>
+        <v>102431.587835781</v>
       </c>
       <c r="M5" t="n">
         <v>103164.1158539154</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262560.348747144</v>
+        <v>-1262907.967676951</v>
       </c>
       <c r="C6" t="n">
-        <v>25058.70326808997</v>
+        <v>25058.70326809047</v>
       </c>
       <c r="D6" t="n">
-        <v>25058.70326809063</v>
+        <v>25058.70326809039</v>
       </c>
       <c r="E6" t="n">
-        <v>-218176.4848283532</v>
+        <v>-218211.2227537892</v>
       </c>
       <c r="F6" t="n">
-        <v>107235.9769790016</v>
+        <v>107201.2390535663</v>
       </c>
       <c r="G6" t="n">
-        <v>107235.9769790018</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="H6" t="n">
-        <v>107235.9769790018</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="I6" t="n">
-        <v>107235.9769790019</v>
+        <v>107201.2390535661</v>
       </c>
       <c r="J6" t="n">
-        <v>-110295.2254182756</v>
+        <v>-110329.9633437112</v>
       </c>
       <c r="K6" t="n">
-        <v>107235.9769790016</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="L6" t="n">
-        <v>90796.34292417073</v>
+        <v>90783.87883825993</v>
       </c>
       <c r="M6" t="n">
-        <v>8998.944190650669</v>
+        <v>8998.944190650145</v>
       </c>
       <c r="N6" t="n">
+        <v>101024.7034838265</v>
+      </c>
+      <c r="O6" t="n">
         <v>101024.7034838264</v>
-      </c>
-      <c r="O6" t="n">
-        <v>101024.7034838265</v>
       </c>
       <c r="P6" t="n">
         <v>101024.7034838265</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197079958</v>
+        <v>8.71341419708061</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.909814385238</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>127.2269826156186</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>204.1341170699115</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>249.1769643864363</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>326.7277128755778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24.17444102869058</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>49.53246091351201</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.16485672317141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.636447659587675e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495976</v>
+        <v>15.57123329495911</v>
       </c>
     </row>
     <row r="35">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3420541567486</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>638.9422653403558</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>97.00034207341533</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326294948</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096379</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>496.3460208959114</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>393.2623022991504</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791313</v>
+        <v>96.61771655791253</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045947</v>
+        <v>279.9038217045941</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140912</v>
+        <v>409.9132476140906</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960049</v>
+        <v>441.8436602960043</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848672</v>
+        <v>437.1973662848665</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010052</v>
+        <v>388.8331330010046</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015847</v>
+        <v>311.2030066015841</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948581</v>
+        <v>135.9734905948575</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937584</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
